--- a/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,06; 63,69</t>
+          <t>41,8; 64,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,59; 68,42</t>
+          <t>43,18; 69,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,04; 63,09</t>
+          <t>45,58; 63,02</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 44,45</t>
+          <t>36,38; 44,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,04; 49,25</t>
+          <t>40,2; 49,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,35; 45,68</t>
+          <t>39,61; 45,65</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,62; 37,05</t>
+          <t>25,15; 38,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,14; 35,23</t>
+          <t>23,16; 35,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,85; 34,8</t>
+          <t>26,12; 34,89</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,59</t>
+          <t>35,58; 42,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,41; 45,76</t>
+          <t>38,53; 45,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,83; 42,91</t>
+          <t>38,27; 43,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,38; 72,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>39,2; 61,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>45,27; 64,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>41,87%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,8; 64,78</t>
+          <t>40,54; 55,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,18; 69,34</t>
+          <t>33,92; 42,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,58; 63,02</t>
+          <t>38,27; 47,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>30,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,38; 44,37</t>
+          <t>23,08; 35,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 1,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,2; 49,36</t>
+          <t>25,36; 38,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 45,65</t>
+          <t>25,65; 35,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>40,24%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,15; 38,34</t>
+          <t>39,14; 51,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 35,3</t>
+          <t>34,01; 40,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,12; 34,89</t>
+          <t>37,7; 44,42</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>39,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>41,99%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>40,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>35,58; 42,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>38,53; 45,84</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>38,27; 43,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
